--- a/human_evaluation/Eval_Summary_Mapping_Opin.xlsx
+++ b/human_evaluation/Eval_Summary_Mapping_Opin.xlsx
@@ -9,15 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="0" windowWidth="25600" windowHeight="20480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Bestwestern-Parking" sheetId="7" r:id="rId1"/>
-    <sheet name="Camry-Mileage" sheetId="6" r:id="rId2"/>
-    <sheet name="Bestwestern-Free" sheetId="5" r:id="rId3"/>
-    <sheet name="Holiday Inn - Food" sheetId="4" r:id="rId4"/>
-    <sheet name="Kindle-Fonts" sheetId="3" r:id="rId5"/>
-    <sheet name="Garmin-Accuracy" sheetId="2" r:id="rId6"/>
+    <sheet name="ResultsMapping-AL1" sheetId="10" r:id="rId1"/>
+    <sheet name="ResultsMapping-AL2" sheetId="9" r:id="rId2"/>
+    <sheet name="ResultsMapping" sheetId="8" r:id="rId3"/>
+    <sheet name="Bestwestern-Parking" sheetId="7" r:id="rId4"/>
+    <sheet name="Camry-Mileage" sheetId="6" r:id="rId5"/>
+    <sheet name="Bestwestern-Free" sheetId="5" r:id="rId6"/>
+    <sheet name="Holiday Inn - Food" sheetId="4" r:id="rId7"/>
+    <sheet name="Kindle-Fonts" sheetId="3" r:id="rId8"/>
+    <sheet name="Garmin-Accuracy" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="71">
   <si>
     <t>Model ID</t>
   </si>
@@ -237,12 +240,39 @@
   <si>
     <t xml:space="preserve">The wine reception is a great idea as it is nice to meet other travellers and great having access to the free Internet access in our room . They also have a computer available with free internet which is a nice bonus but I didn't find that out till the day before we left but was still able to get on there to check our flight to Vegas the next day . The service was good, very friendly staff and we loved the free wine reception each night . has free wireless and help you with transportation needs . The nightly free wine tasting from 5 ,  6 pm is a brilliant idea and gets guests together to socialise witheach other . They have a happy hour where you have a couple offree drinks between 5 and 6 and this gives you a chance to meet other travellers . free wifi and happy hour wine every afternoon ! The parking was free, which was great, and the hotel was conveniently located for public transport, and local attractions . We were also told of the free wine reception at 5pm, great idea as it meant you could chat to your fellow guests . Free internet access and Happy Hour every afternoon . As said before, the free wine reception in the evening is Two Buck Chuck, drinkable, but certainly not anything to write home about . The free wine tasting every night was a wonderful extra and welcomed relaxment in between a long day of sightseeing and evenings out . That and also the free coffee and tea   every morning were little extras that we felt made you feel like a welcomed guest and that they are going out of their way to make the hotel special . Free internet in the lobby but none of any sort in the rooms .The hotel lobby was lovely, real fire, large comfy chairs and free internet access in the corner . There is a concierge, also free wine and appetizers in the afternoon .00 for an adult with free entrance for shildren , ,  we were both fascinated for nearly two hours and it was not crowded . We went down for the free wine reception, and had a great time .The hotel has one computer   available with free internet . And free wifi throughout the hotel which worked flawlessly . The room also has free wireless which I've read other hotels nearby don't . Free Wifi in your room, and the free wine reception in the evenings was great . The free happy hour really made the visit extra special ,  we met so many wonderful people during our 7 day stay this way . I personally appreciated the free internet service in the hotel . Free internet and a computer for use in the lobby was helpful . The manager's cocktail hour was a nice touch, and the free coffee in the morning was also nice though I had to ask both mornings for hot chocolate to be brought out for the kids, and the advertised biscotti was no where to be found . I didn't get to take advantage of the free coffee in the morning, but my husband and I did go to the 5pm, 6pm cocktail hour, which we enjoyed . Coffee and biscotti were available in reception every morning free of charge or if you preferred, there was a restaurant in the hotel that served breakfast or a Starbucks round the corner .This hotel offers a lot ,  a great location, great staff, free wine tastings and morning coffee . I booked a standard king room and was up graded to a premier king free of charge upon our arrival .This is a hassle, free place to stay with a dog . The hotel had free coffee and drinks everyday and free access to wireless internet . Free coffee and biscotti in the morning helped get the GF out of bed .00 found most other places closing so it was Hobsons choiceThe best part of the stay were the free wine and eats in the lounge arond 17 :The free wine and nibbles served between 5pm and 6pm were a lovely touch . We did however take advantage of the free coffee and biscotti that was offered every morning in the lobby .No bar as such in the hotel but they have free wine tasting every day at 5p .The free wine beer and coffee hot chocolate biscotti is a wonderful touch and we took full advantage of it . The late afternoon free wine reception was a really nice touch and we enjoyed this very much . Although we didn't use it, there was free Internet access in the room .l also enjoyed the morning coffee in the lobby and the free wine . The lobby area was really pleasant and the free wine   gets you talking to other guests .The free morning hot cocoa and coffee was nice before our daily excursions . The afternoon wine and cheese was a nice bonus as was the free Internet . We were surprised and delighted when, on arrival, we were given tokens for free continental breakasts . The reception area is compact and during the free evening </t>
   </si>
+  <si>
+    <t>Product-Pair</t>
+  </si>
+  <si>
+    <t>Criteria</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>Bestwestern-Parking</t>
+  </si>
+  <si>
+    <t>Camry-Mileage</t>
+  </si>
+  <si>
+    <t>Bestwestern-Free</t>
+  </si>
+  <si>
+    <t>Holiday Inn - Food</t>
+  </si>
+  <si>
+    <t>Kindle-Fonts</t>
+  </si>
+  <si>
+    <t>Garmin-Accuracy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -299,6 +329,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -308,7 +353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -451,11 +496,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -468,12 +539,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -491,18 +556,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -527,6 +580,55 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,10 +907,3742 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="35"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="27"/>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>I4</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="27"/>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K7" si="0">E5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L7" si="1">H5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M7" si="2">G5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N7" si="3">D5</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O7" si="4">I5</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P7" si="5">F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="27"/>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="27"/>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <f>G10</f>
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <f>F10</f>
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f>D10</f>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f>H10</f>
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <f>E10</f>
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f>I10</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="27"/>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K13" si="6">G11</f>
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L13" si="7">F11</f>
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M13" si="8">D11</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N13" si="9">H11</f>
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O13" si="10">E11</f>
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P13" si="11">I11</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="27"/>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="30"/>
+      <c r="C16" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="K16">
+        <f>H16</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>F16</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>G16</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>I16</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>E16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="30"/>
+      <c r="C17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="K17">
+        <f t="shared" ref="K17:K19" si="12">H17</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:M19" si="13">F17</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:N19" si="14">I17</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17:P19" si="15">D17</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="30"/>
+      <c r="C18" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="K18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="30"/>
+      <c r="C19" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="K19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="30"/>
+      <c r="C22" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="K22">
+        <f>I22</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>H22</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>F22</f>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>G22</f>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="30"/>
+      <c r="C23" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="K23">
+        <f t="shared" ref="K23:K25" si="16">I23</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:L25" si="17">H23</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:O25" si="18">E23</f>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23:P25" si="19">D23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="30"/>
+      <c r="C24" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="K24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="30"/>
+      <c r="C25" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="K25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="30"/>
+      <c r="C28" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="K28">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>H28</f>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f>G28</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>F28</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f>I28</f>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f>E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="30"/>
+      <c r="C29" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="K29">
+        <f t="shared" ref="K29:K31" si="20">D29</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29:L31" si="21">H29</f>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ref="M29:M31" si="22">G29</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="N29:N31" si="23">F29</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ref="O29:O31" si="24">I29</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29:P31" si="25">E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+      <c r="C30" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="K30">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="30"/>
+      <c r="C31" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="K31">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="30"/>
+      <c r="C34" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="K34">
+        <f>F34</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>D34</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f>I34</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>G34</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>E34</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>H34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+      <c r="C35" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="K35">
+        <f t="shared" ref="K35:K37" si="26">F35</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ref="L35:L37" si="27">D35</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35:M37" si="28">I35</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:N37" si="29">G35</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35:O37" si="30">E35</f>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ref="P35:P37" si="31">H35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="30"/>
+      <c r="C36" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="K36">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="30"/>
+      <c r="C37" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="K37">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="36"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="36"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="36"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" s="36"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+    </row>
+    <row r="43" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="36"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B27:B31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="35"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="27"/>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>I4</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="27"/>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K7" si="0">E5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L7" si="1">H5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M7" si="2">G5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N7" si="3">D5</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O7" si="4">I5</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P7" si="5">F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="27"/>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="27"/>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <f>G10</f>
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <f>F10</f>
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f>D10</f>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f>H10</f>
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <f>E10</f>
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f>I10</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="27"/>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K13" si="6">G11</f>
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L13" si="7">F11</f>
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M13" si="8">D11</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N13" si="9">H11</f>
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O13" si="10">E11</f>
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P13" si="11">I11</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="27"/>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="30"/>
+      <c r="C16" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="K16">
+        <f>H16</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>F16</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>G16</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>I16</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>E16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="30"/>
+      <c r="C17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="K17">
+        <f t="shared" ref="K17:K19" si="12">H17</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:M19" si="13">F17</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:N19" si="14">I17</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17:P19" si="15">D17</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="30"/>
+      <c r="C18" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="K18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="30"/>
+      <c r="C19" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="K19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="30"/>
+      <c r="C22" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="K22">
+        <f>I22</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>H22</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>F22</f>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>G22</f>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="30"/>
+      <c r="C23" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="K23">
+        <f t="shared" ref="K23:K25" si="16">I23</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:L25" si="17">H23</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:O25" si="18">E23</f>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23:P25" si="19">D23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="30"/>
+      <c r="C24" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="K24">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="30"/>
+      <c r="C25" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="K25">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="30"/>
+      <c r="C28" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="K28">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>H28</f>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f>G28</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>F28</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f>I28</f>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f>E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="30"/>
+      <c r="C29" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="K29">
+        <f t="shared" ref="K29:K31" si="20">D29</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29:L31" si="21">H29</f>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ref="M29:M31" si="22">G29</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="N29:N31" si="23">F29</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ref="O29:O31" si="24">I29</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29:P31" si="25">E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+      <c r="C30" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="K30">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="30"/>
+      <c r="C31" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="K31">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="30"/>
+      <c r="C34" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="K34">
+        <f>F34</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>D34</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f>I34</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>G34</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>E34</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>H34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+      <c r="C35" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="K35">
+        <f t="shared" ref="K35:K37" si="26">F35</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ref="L35:L37" si="27">D35</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35:M37" si="28">I35</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:N37" si="29">G35</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35:O37" si="30">E35</f>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ref="P35:P37" si="31">H35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="30"/>
+      <c r="C36" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="K36">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="30"/>
+      <c r="C37" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="K37">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="36"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="36"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="36"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" s="36"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+    </row>
+    <row r="43" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="36"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B27:B31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="35"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="27"/>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>G4</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>I4</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="27"/>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K7" si="0">E5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L7" si="1">H5</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M7" si="2">G5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N7" si="3">D5</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O7" si="4">I5</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P7" si="5">F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="27"/>
+      <c r="C6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="27"/>
+      <c r="C7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="27"/>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <f>G10</f>
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <f>F10</f>
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f>D10</f>
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f>H10</f>
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <f>E10</f>
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <f>I10</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="27"/>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K13" si="6">G11</f>
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:L13" si="7">F11</f>
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ref="M11:M13" si="8">D11</f>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ref="N11:N13" si="9">H11</f>
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <f t="shared" ref="O11:O13" si="10">E11</f>
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P13" si="11">I11</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="27"/>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="27"/>
+      <c r="C13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="30"/>
+      <c r="C16" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="K16">
+        <f>H16</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>F16</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>G16</f>
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f>I16</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>D16</f>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f>E16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="30"/>
+      <c r="C17" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="K17">
+        <f t="shared" ref="K17:K19" si="12">H17</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L19" si="13">F17</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ref="M17:M19" si="14">G17</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:N19" si="15">I17</f>
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <f t="shared" ref="O17:O19" si="16">D17</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ref="P17:P19" si="17">E17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="30"/>
+      <c r="C18" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="K18">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="30"/>
+      <c r="C19" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="K19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B21" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B22" s="30"/>
+      <c r="C22" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="K22">
+        <f>I22</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>H22</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <f>F22</f>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>G22</f>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f>D22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B23" s="30"/>
+      <c r="C23" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="K23">
+        <f t="shared" ref="K23:K25" si="18">I23</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ref="L23:L25" si="19">H23</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:M25" si="20">E23</f>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ref="N23:N25" si="21">F23</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f t="shared" ref="O23:O25" si="22">G23</f>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" ref="P23:P25" si="23">D23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B24" s="30"/>
+      <c r="C24" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="K24">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="30"/>
+      <c r="C25" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="K25">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B27" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="31"/>
+      <c r="D27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B28" s="30"/>
+      <c r="C28" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="K28">
+        <f>D28</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>H28</f>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f>G28</f>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f>F28</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f>I28</f>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f>E28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B29" s="30"/>
+      <c r="C29" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="K29">
+        <f t="shared" ref="K29:K31" si="24">D29</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29:L31" si="25">H29</f>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ref="M29:M31" si="26">G29</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" ref="N29:N31" si="27">F29</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" ref="O29:O31" si="28">I29</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29:P31" si="29">E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="30"/>
+      <c r="C30" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="K30">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="30"/>
+      <c r="C31" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="K31">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B33" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="31"/>
+      <c r="D33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="P33" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B34" s="30"/>
+      <c r="C34" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="K34">
+        <f>F34</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>D34</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f>I34</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>G34</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>E34</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>H34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B35" s="30"/>
+      <c r="C35" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="K35">
+        <f t="shared" ref="K35:K37" si="30">F35</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ref="L35:L37" si="31">D35</f>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35:M37" si="32">I35</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:N37" si="33">G35</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" ref="O35:O37" si="34">E35</f>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" ref="P35:P37" si="35">H35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B36" s="30"/>
+      <c r="C36" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="K36">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="30"/>
+      <c r="C37" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="K37">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B39" s="36"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B40" s="36"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B41" s="36"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B42" s="36"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+    </row>
+    <row r="43" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="36"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+    </row>
+    <row r="44" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B27:B31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -825,60 +4659,60 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:8" ht="239" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="2:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" ht="161" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -916,592 +4750,58 @@
     </row>
     <row r="8" spans="2:8" ht="25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C8:H8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="2:8" ht="239" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="2:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="2:8" ht="129" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C8:H8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="2:8" ht="239" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="2:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="2:8" ht="225" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-    </row>
-    <row r="13" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="C8:H8"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="2:8" ht="239" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="2:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="2:8" ht="241" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="25" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -1520,7 +4820,541 @@
   <dimension ref="B1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H5"/>
+      <selection activeCell="C6" sqref="C6:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="2:8" ht="239" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="2:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" ht="129" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" ht="25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="2:8" ht="239" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="2:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" ht="225" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" ht="25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="2:8" ht="239" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="2:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="2:8" ht="241" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8" ht="25" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1537,60 +5371,60 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:8" ht="239" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="2:8" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" ht="209" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1628,58 +5462,58 @@
     </row>
     <row r="8" spans="2:8" ht="25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -1693,12 +5527,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1715,60 +5549,60 @@
   <sheetData>
     <row r="1" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="27" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:8" ht="239" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="2:8" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="7"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="9"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" ht="145" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="19" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1806,58 +5640,58 @@
     </row>
     <row r="8" spans="2:8" ht="25" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="2:8" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
